--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Epo-Crlf3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Epo-Crlf3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Crlf3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09765400000000002</v>
+        <v>0.12382</v>
       </c>
       <c r="H2">
-        <v>0.2929620000000001</v>
+        <v>0.37146</v>
       </c>
       <c r="I2">
-        <v>0.3709121571149674</v>
+        <v>0.3718173164410999</v>
       </c>
       <c r="J2">
-        <v>0.3957282817626647</v>
+        <v>0.3770600965540203</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.498401333333334</v>
+        <v>4.158003333333333</v>
       </c>
       <c r="N2">
-        <v>13.495204</v>
+        <v>12.47401</v>
       </c>
       <c r="O2">
-        <v>0.0680883069944002</v>
+        <v>0.0557595635956266</v>
       </c>
       <c r="P2">
-        <v>0.07089228742970831</v>
+        <v>0.05775725365284703</v>
       </c>
       <c r="Q2">
-        <v>0.4392868838053334</v>
+        <v>0.5148439727333334</v>
       </c>
       <c r="R2">
-        <v>3.953581954248001</v>
+        <v>4.6335957546</v>
       </c>
       <c r="S2">
-        <v>0.0252547808215991</v>
+        <v>0.02073237130205273</v>
       </c>
       <c r="T2">
-        <v>0.02805408309478342</v>
+        <v>0.02177795563903754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09765400000000002</v>
+        <v>0.12382</v>
       </c>
       <c r="H3">
-        <v>0.2929620000000001</v>
+        <v>0.37146</v>
       </c>
       <c r="I3">
-        <v>0.3709121571149674</v>
+        <v>0.3718173164410999</v>
       </c>
       <c r="J3">
-        <v>0.3957282817626647</v>
+        <v>0.3770600965540203</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.359583</v>
       </c>
       <c r="O3">
-        <v>0.07244941948380848</v>
+        <v>0.06418818659718716</v>
       </c>
       <c r="P3">
-        <v>0.07543299718972406</v>
+        <v>0.06648784774744529</v>
       </c>
       <c r="Q3">
-        <v>0.4674235727606667</v>
+        <v>0.5926678556866666</v>
       </c>
       <c r="R3">
-        <v>4.206812154846</v>
+        <v>5.33401070118</v>
       </c>
       <c r="S3">
-        <v>0.02687237046246655</v>
+        <v>0.0238662792877867</v>
       </c>
       <c r="T3">
-        <v>0.02985097036609741</v>
+        <v>0.02506991429132072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09765400000000002</v>
+        <v>0.12382</v>
       </c>
       <c r="H4">
-        <v>0.2929620000000001</v>
+        <v>0.37146</v>
       </c>
       <c r="I4">
-        <v>0.3709121571149674</v>
+        <v>0.3718173164410999</v>
       </c>
       <c r="J4">
-        <v>0.3957282817626647</v>
+        <v>0.3770600965540203</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.54755133333333</v>
+        <v>33.69650866666667</v>
       </c>
       <c r="N4">
-        <v>76.64265399999999</v>
+        <v>101.089526</v>
       </c>
       <c r="O4">
-        <v>0.3866906016698669</v>
+        <v>0.4518761692389816</v>
       </c>
       <c r="P4">
-        <v>0.4026151110234186</v>
+        <v>0.4680654733183696</v>
       </c>
       <c r="Q4">
-        <v>2.494820577905334</v>
+        <v>4.172301703106666</v>
       </c>
       <c r="R4">
-        <v>22.453385201148</v>
+        <v>37.55071532796001</v>
       </c>
       <c r="S4">
-        <v>0.1434282452014549</v>
+        <v>0.1680153846101224</v>
       </c>
       <c r="T4">
-        <v>0.1593261860969819</v>
+        <v>0.1764888125630276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.09765400000000002</v>
+        <v>0.12382</v>
       </c>
       <c r="H5">
-        <v>0.2929620000000001</v>
+        <v>0.37146</v>
       </c>
       <c r="I5">
-        <v>0.3709121571149674</v>
+        <v>0.3718173164410999</v>
       </c>
       <c r="J5">
-        <v>0.3957282817626647</v>
+        <v>0.3770600965540203</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.839401499999999</v>
+        <v>7.737636</v>
       </c>
       <c r="N5">
-        <v>15.678803</v>
+        <v>15.475272</v>
       </c>
       <c r="O5">
-        <v>0.1186580601488561</v>
+        <v>0.1037630737722216</v>
       </c>
       <c r="P5">
-        <v>0.0823630534840209</v>
+        <v>0.07165371923309356</v>
       </c>
       <c r="Q5">
-        <v>0.7655489140810001</v>
+        <v>0.9580740895200001</v>
       </c>
       <c r="R5">
-        <v>4.593293484486001</v>
+        <v>5.74844453712</v>
       </c>
       <c r="S5">
-        <v>0.04401171704888978</v>
+        <v>0.0385809076356673</v>
       </c>
       <c r="T5">
-        <v>0.03259338963595804</v>
+        <v>0.02701775829248492</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.09765400000000002</v>
+        <v>0.12382</v>
       </c>
       <c r="H6">
-        <v>0.2929620000000001</v>
+        <v>0.37146</v>
       </c>
       <c r="I6">
-        <v>0.3709121571149674</v>
+        <v>0.3718173164410999</v>
       </c>
       <c r="J6">
-        <v>0.3957282817626647</v>
+        <v>0.3770600965540203</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.395282</v>
+        <v>24.19155166666667</v>
       </c>
       <c r="N6">
-        <v>70.185846</v>
+        <v>72.57465499999999</v>
       </c>
       <c r="O6">
-        <v>0.3541136117030684</v>
+        <v>0.324413006795983</v>
       </c>
       <c r="P6">
-        <v>0.3686965508731281</v>
+        <v>0.3360357060482445</v>
       </c>
       <c r="Q6">
-        <v>2.284642868428</v>
+        <v>2.995397927366667</v>
       </c>
       <c r="R6">
-        <v>20.56178581585201</v>
+        <v>26.9585813463</v>
       </c>
       <c r="S6">
-        <v>0.131345043580557</v>
+        <v>0.1206223736054707</v>
       </c>
       <c r="T6">
-        <v>0.1459036525688439</v>
+        <v>0.1267056557681495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.186177</v>
       </c>
       <c r="I7">
-        <v>0.2357142314538857</v>
+        <v>0.1863560882007609</v>
       </c>
       <c r="J7">
-        <v>0.2514848489351096</v>
+        <v>0.1889837872076074</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.498401333333334</v>
+        <v>4.158003333333333</v>
       </c>
       <c r="N7">
-        <v>13.495204</v>
+        <v>12.47401</v>
       </c>
       <c r="O7">
-        <v>0.0680883069944002</v>
+        <v>0.0557595635956266</v>
       </c>
       <c r="P7">
-        <v>0.07089228742970831</v>
+        <v>0.05775725365284703</v>
       </c>
       <c r="Q7">
-        <v>0.2791662883453334</v>
+        <v>0.2580415288633333</v>
       </c>
       <c r="R7">
-        <v>2.512496595108</v>
+        <v>2.32237375977</v>
       </c>
       <c r="S7">
-        <v>0.01604938295418127</v>
+        <v>0.01039113415146253</v>
       </c>
       <c r="T7">
-        <v>0.01782833619492457</v>
+        <v>0.01091518453402545</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.186177</v>
       </c>
       <c r="I8">
-        <v>0.2357142314538857</v>
+        <v>0.1863560882007609</v>
       </c>
       <c r="J8">
-        <v>0.2514848489351096</v>
+        <v>0.1889837872076074</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>14.359583</v>
       </c>
       <c r="O8">
-        <v>0.07244941948380848</v>
+        <v>0.06418818659718716</v>
       </c>
       <c r="P8">
-        <v>0.07543299718972406</v>
+        <v>0.06648784774744529</v>
       </c>
       <c r="Q8">
         <v>0.2970471204656666</v>
@@ -948,10 +948,10 @@
         <v>2.673424084190999</v>
       </c>
       <c r="S8">
-        <v>0.01707735923290609</v>
+        <v>0.01196185936295231</v>
       </c>
       <c r="T8">
-        <v>0.0189702559029803</v>
+        <v>0.012565125270595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,10 +980,10 @@
         <v>0.186177</v>
       </c>
       <c r="I9">
-        <v>0.2357142314538857</v>
+        <v>0.1863560882007609</v>
       </c>
       <c r="J9">
-        <v>0.2514848489351096</v>
+        <v>0.1889837872076074</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.54755133333333</v>
+        <v>33.69650866666667</v>
       </c>
       <c r="N9">
-        <v>76.64265399999999</v>
+        <v>101.089526</v>
       </c>
       <c r="O9">
-        <v>0.3866906016698669</v>
+        <v>0.4518761692389816</v>
       </c>
       <c r="P9">
-        <v>0.4026151110234186</v>
+        <v>0.4680654733183696</v>
       </c>
       <c r="Q9">
-        <v>1.585455488195333</v>
+        <v>2.091171631344666</v>
       </c>
       <c r="R9">
-        <v>14.269099393758</v>
+        <v>18.820544682102</v>
       </c>
       <c r="S9">
-        <v>0.09114847798305331</v>
+        <v>0.08420987525052162</v>
       </c>
       <c r="T9">
-        <v>0.1012516003747168</v>
+        <v>0.08845678580882679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,10 +1042,10 @@
         <v>0.186177</v>
       </c>
       <c r="I10">
-        <v>0.2357142314538857</v>
+        <v>0.1863560882007609</v>
       </c>
       <c r="J10">
-        <v>0.2514848489351096</v>
+        <v>0.1889837872076074</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.839401499999999</v>
+        <v>7.737636</v>
       </c>
       <c r="N10">
-        <v>15.678803</v>
+        <v>15.475272</v>
       </c>
       <c r="O10">
-        <v>0.1186580601488561</v>
+        <v>0.1037630737722216</v>
       </c>
       <c r="P10">
-        <v>0.0823630534840209</v>
+        <v>0.07165371923309356</v>
       </c>
       <c r="Q10">
-        <v>0.4865054176884999</v>
+        <v>0.480189952524</v>
       </c>
       <c r="R10">
-        <v>2.919032506130999</v>
+        <v>2.881139715144</v>
       </c>
       <c r="S10">
-        <v>0.02796939345379657</v>
+        <v>0.01933688052787819</v>
       </c>
       <c r="T10">
-        <v>0.02071306006326335</v>
+        <v>0.0135413912281806</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>0.186177</v>
       </c>
       <c r="I11">
-        <v>0.2357142314538857</v>
+        <v>0.1863560882007609</v>
       </c>
       <c r="J11">
-        <v>0.2514848489351096</v>
+        <v>0.1889837872076074</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.395282</v>
+        <v>24.19155166666667</v>
       </c>
       <c r="N11">
-        <v>70.185846</v>
+        <v>72.57465499999999</v>
       </c>
       <c r="O11">
-        <v>0.3541136117030684</v>
+        <v>0.324413006795983</v>
       </c>
       <c r="P11">
-        <v>0.3686965508731281</v>
+        <v>0.3360357060482445</v>
       </c>
       <c r="Q11">
-        <v>1.451887805638</v>
+        <v>1.501303504881667</v>
       </c>
       <c r="R11">
-        <v>13.066990250742</v>
+        <v>13.511731543935</v>
       </c>
       <c r="S11">
-        <v>0.08346961782994847</v>
+        <v>0.06045633890794626</v>
       </c>
       <c r="T11">
-        <v>0.0927215963992246</v>
+        <v>0.06350530036597955</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,19 +1157,19 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.049531</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H12">
-        <v>0.099062</v>
+        <v>0.361511</v>
       </c>
       <c r="I12">
-        <v>0.188130031069505</v>
+        <v>0.3618587462551512</v>
       </c>
       <c r="J12">
-        <v>0.1338113306434728</v>
+        <v>0.366961106351533</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.498401333333334</v>
+        <v>4.158003333333333</v>
       </c>
       <c r="N12">
-        <v>13.495204</v>
+        <v>12.47401</v>
       </c>
       <c r="O12">
-        <v>0.0680883069944002</v>
+        <v>0.0557595635956266</v>
       </c>
       <c r="P12">
-        <v>0.07089228742970831</v>
+        <v>0.05775725365284703</v>
       </c>
       <c r="Q12">
-        <v>0.2228103164413333</v>
+        <v>0.501054647678889</v>
       </c>
       <c r="R12">
-        <v>1.336861898648</v>
+        <v>4.50949182911</v>
       </c>
       <c r="S12">
-        <v>0.01280945531032651</v>
+        <v>0.02017708577444782</v>
       </c>
       <c r="T12">
-        <v>0.009486191313328809</v>
+        <v>0.02119466570027487</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.049531</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H13">
-        <v>0.099062</v>
+        <v>0.361511</v>
       </c>
       <c r="I13">
-        <v>0.188130031069505</v>
+        <v>0.3618587462551512</v>
       </c>
       <c r="J13">
-        <v>0.1338113306434728</v>
+        <v>0.366961106351533</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>14.359583</v>
       </c>
       <c r="O13">
-        <v>0.07244941948380848</v>
+        <v>0.06418818659718716</v>
       </c>
       <c r="P13">
-        <v>0.07543299718972406</v>
+        <v>0.06648784774744529</v>
       </c>
       <c r="Q13">
-        <v>0.2370815018576666</v>
+        <v>0.5767941344347778</v>
       </c>
       <c r="R13">
-        <v>1.422489011146</v>
+        <v>5.191147209913</v>
       </c>
       <c r="S13">
-        <v>0.01362991153845649</v>
+        <v>0.02322705672644985</v>
       </c>
       <c r="T13">
-        <v>0.01009378972838232</v>
+        <v>0.0243984541683348</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.049531</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H14">
-        <v>0.099062</v>
+        <v>0.361511</v>
       </c>
       <c r="I14">
-        <v>0.188130031069505</v>
+        <v>0.3618587462551512</v>
       </c>
       <c r="J14">
-        <v>0.1338113306434728</v>
+        <v>0.366961106351533</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.54755133333333</v>
+        <v>33.69650866666667</v>
       </c>
       <c r="N14">
-        <v>76.64265399999999</v>
+        <v>101.089526</v>
       </c>
       <c r="O14">
-        <v>0.3866906016698669</v>
+        <v>0.4518761692389816</v>
       </c>
       <c r="P14">
-        <v>0.4026151110234186</v>
+        <v>0.4680654733183696</v>
       </c>
       <c r="Q14">
-        <v>1.265395765091333</v>
+        <v>4.060552848198444</v>
       </c>
       <c r="R14">
-        <v>7.592374590547999</v>
+        <v>36.544975633786</v>
       </c>
       <c r="S14">
-        <v>0.07274811490643765</v>
+        <v>0.1635153440633984</v>
       </c>
       <c r="T14">
-        <v>0.05387446374321318</v>
+        <v>0.1717618239338629</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.049531</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H15">
-        <v>0.099062</v>
+        <v>0.361511</v>
       </c>
       <c r="I15">
-        <v>0.188130031069505</v>
+        <v>0.3618587462551512</v>
       </c>
       <c r="J15">
-        <v>0.1338113306434728</v>
+        <v>0.366961106351533</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.839401499999999</v>
+        <v>7.737636</v>
       </c>
       <c r="N15">
-        <v>15.678803</v>
+        <v>15.475272</v>
       </c>
       <c r="O15">
-        <v>0.1186580601488561</v>
+        <v>0.1037630737722216</v>
       </c>
       <c r="P15">
-        <v>0.0823630534840209</v>
+        <v>0.07165371923309356</v>
       </c>
       <c r="Q15">
-        <v>0.3882933956965</v>
+        <v>0.9324135093320001</v>
       </c>
       <c r="R15">
-        <v>1.553173582786</v>
+        <v>5.594481055992</v>
       </c>
       <c r="S15">
-        <v>0.0223231445424515</v>
+        <v>0.03754757578279687</v>
       </c>
       <c r="T15">
-        <v>0.01102110978255636</v>
+        <v>0.02629412808397813</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.049531</v>
+        <v>0.1205036666666667</v>
       </c>
       <c r="H16">
-        <v>0.099062</v>
+        <v>0.361511</v>
       </c>
       <c r="I16">
-        <v>0.188130031069505</v>
+        <v>0.3618587462551512</v>
       </c>
       <c r="J16">
-        <v>0.1338113306434728</v>
+        <v>0.366961106351533</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.395282</v>
+        <v>24.19155166666667</v>
       </c>
       <c r="N16">
-        <v>70.185846</v>
+        <v>72.57465499999999</v>
       </c>
       <c r="O16">
-        <v>0.3541136117030684</v>
+        <v>0.324413006795983</v>
       </c>
       <c r="P16">
-        <v>0.3686965508731281</v>
+        <v>0.3360357060482445</v>
       </c>
       <c r="Q16">
-        <v>1.158791712742</v>
+        <v>2.915170678189444</v>
       </c>
       <c r="R16">
-        <v>6.952750276452</v>
+        <v>26.236536103705</v>
       </c>
       <c r="S16">
-        <v>0.0666194047718329</v>
+        <v>0.1173916839080583</v>
       </c>
       <c r="T16">
-        <v>0.04933577607599214</v>
+        <v>0.1233120344650823</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05403666666666667</v>
+        <v>0.013891</v>
       </c>
       <c r="H17">
-        <v>0.16211</v>
+        <v>0.027782</v>
       </c>
       <c r="I17">
-        <v>0.205243580361642</v>
+        <v>0.04171308627591115</v>
       </c>
       <c r="J17">
-        <v>0.2189755386587529</v>
+        <v>0.02820083885872986</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.498401333333334</v>
+        <v>4.158003333333333</v>
       </c>
       <c r="N17">
-        <v>13.495204</v>
+        <v>12.47401</v>
       </c>
       <c r="O17">
-        <v>0.0680883069944002</v>
+        <v>0.0557595635956266</v>
       </c>
       <c r="P17">
-        <v>0.07089228742970831</v>
+        <v>0.05775725365284703</v>
       </c>
       <c r="Q17">
-        <v>0.2430786133822223</v>
+        <v>0.05775882430333334</v>
       </c>
       <c r="R17">
-        <v>2.18770752044</v>
+        <v>0.34655294582</v>
       </c>
       <c r="S17">
-        <v>0.01397468790829333</v>
+        <v>0.002325903486971527</v>
       </c>
       <c r="T17">
-        <v>0.01552367682667151</v>
+        <v>0.001628803003186726</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05403666666666667</v>
+        <v>0.013891</v>
       </c>
       <c r="H18">
-        <v>0.16211</v>
+        <v>0.027782</v>
       </c>
       <c r="I18">
-        <v>0.205243580361642</v>
+        <v>0.04171308627591115</v>
       </c>
       <c r="J18">
-        <v>0.2189755386587529</v>
+        <v>0.02820083885872986</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>14.359583</v>
       </c>
       <c r="O18">
-        <v>0.07244941948380848</v>
+        <v>0.06418818659718716</v>
       </c>
       <c r="P18">
-        <v>0.07543299718972406</v>
+        <v>0.06648784774744529</v>
       </c>
       <c r="Q18">
-        <v>0.2586480000144444</v>
+        <v>0.06648965581766667</v>
       </c>
       <c r="R18">
-        <v>2.32783200013</v>
+        <v>0.398937934906</v>
       </c>
       <c r="S18">
-        <v>0.01486977824997936</v>
+        <v>0.002677487365422752</v>
       </c>
       <c r="T18">
-        <v>0.01651798119226401</v>
+        <v>0.00187501308038947</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05403666666666667</v>
+        <v>0.013891</v>
       </c>
       <c r="H19">
-        <v>0.16211</v>
+        <v>0.027782</v>
       </c>
       <c r="I19">
-        <v>0.205243580361642</v>
+        <v>0.04171308627591115</v>
       </c>
       <c r="J19">
-        <v>0.2189755386587529</v>
+        <v>0.02820083885872986</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.54755133333333</v>
+        <v>33.69650866666667</v>
       </c>
       <c r="N19">
-        <v>76.64265399999999</v>
+        <v>101.089526</v>
       </c>
       <c r="O19">
-        <v>0.3866906016698669</v>
+        <v>0.4518761692389816</v>
       </c>
       <c r="P19">
-        <v>0.4026151110234186</v>
+        <v>0.4680654733183696</v>
       </c>
       <c r="Q19">
-        <v>1.380504515548889</v>
+        <v>0.4680782018886667</v>
       </c>
       <c r="R19">
-        <v>12.42454063994</v>
+        <v>2.808469211332</v>
       </c>
       <c r="S19">
-        <v>0.079365763578921</v>
+        <v>0.01884914963349387</v>
       </c>
       <c r="T19">
-        <v>0.08816286080850666</v>
+        <v>0.01319983898838646</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.05403666666666667</v>
+        <v>0.013891</v>
       </c>
       <c r="H20">
-        <v>0.16211</v>
+        <v>0.027782</v>
       </c>
       <c r="I20">
-        <v>0.205243580361642</v>
+        <v>0.04171308627591115</v>
       </c>
       <c r="J20">
-        <v>0.2189755386587529</v>
+        <v>0.02820083885872986</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.839401499999999</v>
+        <v>7.737636</v>
       </c>
       <c r="N20">
-        <v>15.678803</v>
+        <v>15.475272</v>
       </c>
       <c r="O20">
-        <v>0.1186580601488561</v>
+        <v>0.1037630737722216</v>
       </c>
       <c r="P20">
-        <v>0.0823630534840209</v>
+        <v>0.07165371923309356</v>
       </c>
       <c r="Q20">
-        <v>0.4236151257216667</v>
+        <v>0.107483501676</v>
       </c>
       <c r="R20">
-        <v>2.54169075433</v>
+        <v>0.429934006704</v>
       </c>
       <c r="S20">
-        <v>0.0243538051037183</v>
+        <v>0.004328278048514412</v>
       </c>
       <c r="T20">
-        <v>0.01803549400224315</v>
+        <v>0.002020694989721144</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.05403666666666667</v>
+        <v>0.013891</v>
       </c>
       <c r="H21">
-        <v>0.16211</v>
+        <v>0.027782</v>
       </c>
       <c r="I21">
-        <v>0.205243580361642</v>
+        <v>0.04171308627591115</v>
       </c>
       <c r="J21">
-        <v>0.2189755386587529</v>
+        <v>0.02820083885872986</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.395282</v>
+        <v>24.19155166666667</v>
       </c>
       <c r="N21">
-        <v>70.185846</v>
+        <v>72.57465499999999</v>
       </c>
       <c r="O21">
-        <v>0.3541136117030684</v>
+        <v>0.324413006795983</v>
       </c>
       <c r="P21">
-        <v>0.3686965508731281</v>
+        <v>0.3360357060482445</v>
       </c>
       <c r="Q21">
-        <v>1.264203055006667</v>
+        <v>0.3360448442016666</v>
       </c>
       <c r="R21">
-        <v>11.37782749506</v>
+        <v>2.01626906521</v>
       </c>
       <c r="S21">
-        <v>0.07267954552073</v>
+        <v>0.01353226774150859</v>
       </c>
       <c r="T21">
-        <v>0.08073552582906751</v>
+        <v>0.009476488797046059</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.01273933333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.038218</v>
+      </c>
+      <c r="I22">
+        <v>0.03825476282707682</v>
+      </c>
+      <c r="J22">
+        <v>0.03879417102810949</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.158003333333333</v>
+      </c>
+      <c r="N22">
+        <v>12.47401</v>
+      </c>
+      <c r="O22">
+        <v>0.0557595635956266</v>
+      </c>
+      <c r="P22">
+        <v>0.05775725365284703</v>
+      </c>
+      <c r="Q22">
+        <v>0.05297019046444444</v>
+      </c>
+      <c r="R22">
+        <v>0.47673171418</v>
+      </c>
+      <c r="S22">
+        <v>0.002133068880692003</v>
+      </c>
+      <c r="T22">
+        <v>0.002240644776322449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.01273933333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.038218</v>
+      </c>
+      <c r="I23">
+        <v>0.03825476282707682</v>
+      </c>
+      <c r="J23">
+        <v>0.03879417102810949</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.786527666666666</v>
+      </c>
+      <c r="N23">
+        <v>14.359583</v>
+      </c>
+      <c r="O23">
+        <v>0.06418818659718716</v>
+      </c>
+      <c r="P23">
+        <v>0.06648784774744529</v>
+      </c>
+      <c r="Q23">
+        <v>0.06097717145488889</v>
+      </c>
+      <c r="R23">
+        <v>0.548794543094</v>
+      </c>
+      <c r="S23">
+        <v>0.002455503854575546</v>
+      </c>
+      <c r="T23">
+        <v>0.002579340936805297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.01273933333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.038218</v>
+      </c>
+      <c r="I24">
+        <v>0.03825476282707682</v>
+      </c>
+      <c r="J24">
+        <v>0.03879417102810949</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>33.69650866666667</v>
+      </c>
+      <c r="N24">
+        <v>101.089526</v>
+      </c>
+      <c r="O24">
+        <v>0.4518761692389816</v>
+      </c>
+      <c r="P24">
+        <v>0.4680654733183696</v>
+      </c>
+      <c r="Q24">
+        <v>0.4292710560742222</v>
+      </c>
+      <c r="R24">
+        <v>3.863439504668</v>
+      </c>
+      <c r="S24">
+        <v>0.01728641568144527</v>
+      </c>
+      <c r="T24">
+        <v>0.01815821202426585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.01273933333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.038218</v>
+      </c>
+      <c r="I25">
+        <v>0.03825476282707682</v>
+      </c>
+      <c r="J25">
+        <v>0.03879417102810949</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.737636</v>
+      </c>
+      <c r="N25">
+        <v>15.475272</v>
+      </c>
+      <c r="O25">
+        <v>0.1037630737722216</v>
+      </c>
+      <c r="P25">
+        <v>0.07165371923309356</v>
+      </c>
+      <c r="Q25">
+        <v>0.098572324216</v>
+      </c>
+      <c r="R25">
+        <v>0.591433945296</v>
+      </c>
+      <c r="S25">
+        <v>0.003969431777364812</v>
+      </c>
+      <c r="T25">
+        <v>0.00277974663872877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.01273933333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.038218</v>
+      </c>
+      <c r="I26">
+        <v>0.03825476282707682</v>
+      </c>
+      <c r="J26">
+        <v>0.03879417102810949</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.19155166666667</v>
+      </c>
+      <c r="N26">
+        <v>72.57465499999999</v>
+      </c>
+      <c r="O26">
+        <v>0.324413006795983</v>
+      </c>
+      <c r="P26">
+        <v>0.3360357060482445</v>
+      </c>
+      <c r="Q26">
+        <v>0.3081842405322222</v>
+      </c>
+      <c r="R26">
+        <v>2.77365816479</v>
+      </c>
+      <c r="S26">
+        <v>0.01241034263299919</v>
+      </c>
+      <c r="T26">
+        <v>0.01303622665198712</v>
       </c>
     </row>
   </sheetData>
